--- a/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H2">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I2">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J2">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N2">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O2">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P2">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q2">
-        <v>9.950040410174781</v>
+        <v>25.94978804118089</v>
       </c>
       <c r="R2">
-        <v>9.950040410174781</v>
+        <v>233.548092370628</v>
       </c>
       <c r="S2">
-        <v>0.001763265815247194</v>
+        <v>0.003863338062187845</v>
       </c>
       <c r="T2">
-        <v>0.001763265815247194</v>
+        <v>0.003863338062187844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H3">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I3">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J3">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N3">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O3">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P3">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q3">
-        <v>176.974023695626</v>
+        <v>247.7700605804169</v>
       </c>
       <c r="R3">
-        <v>176.974023695626</v>
+        <v>2229.930545223752</v>
       </c>
       <c r="S3">
-        <v>0.03136190742000842</v>
+        <v>0.0368873728059689</v>
       </c>
       <c r="T3">
-        <v>0.03136190742000842</v>
+        <v>0.03688737280596889</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H4">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I4">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J4">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N4">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O4">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P4">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q4">
-        <v>9.634557423246321</v>
+        <v>15.60768846997733</v>
       </c>
       <c r="R4">
-        <v>9.634557423246321</v>
+        <v>140.469196229796</v>
       </c>
       <c r="S4">
-        <v>0.001707358467818314</v>
+        <v>0.002323632733845245</v>
       </c>
       <c r="T4">
-        <v>0.001707358467818314</v>
+        <v>0.002323632733845245</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H5">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I5">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J5">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.53105123204757</v>
+        <v>9.203668</v>
       </c>
       <c r="N5">
-        <v>8.53105123204757</v>
+        <v>27.611004</v>
       </c>
       <c r="O5">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528278</v>
       </c>
       <c r="P5">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528276</v>
       </c>
       <c r="Q5">
-        <v>114.8328921451464</v>
+        <v>173.2589826064347</v>
       </c>
       <c r="R5">
-        <v>114.8328921451464</v>
+        <v>1559.330843457912</v>
       </c>
       <c r="S5">
-        <v>0.02034975787419419</v>
+        <v>0.02579435412178113</v>
       </c>
       <c r="T5">
-        <v>0.02034975787419419</v>
+        <v>0.02579435412178112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H6">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N6">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O6">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P6">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q6">
-        <v>89.29270889217017</v>
+        <v>167.9270951661558</v>
       </c>
       <c r="R6">
-        <v>89.29270889217017</v>
+        <v>1511.343856495402</v>
       </c>
       <c r="S6">
-        <v>0.01582373283422847</v>
+        <v>0.02500055635901554</v>
       </c>
       <c r="T6">
-        <v>0.01582373283422847</v>
+        <v>0.02500055635901553</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H7">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N7">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O7">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P7">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q7">
-        <v>1588.183497543401</v>
+        <v>1603.37751030503</v>
       </c>
       <c r="R7">
-        <v>1588.183497543401</v>
+        <v>14430.39759274527</v>
       </c>
       <c r="S7">
-        <v>0.2814450549059441</v>
+        <v>0.238706742181757</v>
       </c>
       <c r="T7">
-        <v>0.2814450549059441</v>
+        <v>0.2387067421817569</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H8">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J8">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N8">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O8">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P8">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q8">
-        <v>86.46153139429499</v>
+        <v>101.0009709082127</v>
       </c>
       <c r="R8">
-        <v>86.46153139429499</v>
+        <v>909.0087381739141</v>
       </c>
       <c r="S8">
-        <v>0.01532201441971876</v>
+        <v>0.01503676618122653</v>
       </c>
       <c r="T8">
-        <v>0.01532201441971876</v>
+        <v>0.01503676618122652</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H9">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J9">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.53105123204757</v>
+        <v>9.203668</v>
       </c>
       <c r="N9">
-        <v>8.53105123204757</v>
+        <v>27.611004</v>
       </c>
       <c r="O9">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528278</v>
       </c>
       <c r="P9">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528276</v>
       </c>
       <c r="Q9">
-        <v>1030.522448841232</v>
+        <v>1121.199048499745</v>
       </c>
       <c r="R9">
-        <v>1030.522448841232</v>
+        <v>10090.79143649771</v>
       </c>
       <c r="S9">
-        <v>0.1826208669492882</v>
+        <v>0.1669212462346089</v>
       </c>
       <c r="T9">
-        <v>0.1826208669492882</v>
+        <v>0.1669212462346088</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H10">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N10">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O10">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P10">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q10">
-        <v>54.57850861337658</v>
+        <v>120.8558743074033</v>
       </c>
       <c r="R10">
-        <v>54.57850861337658</v>
+        <v>1087.70286876663</v>
       </c>
       <c r="S10">
-        <v>0.009671962576828464</v>
+        <v>0.01799271340905851</v>
       </c>
       <c r="T10">
-        <v>0.009671962576828464</v>
+        <v>0.0179927134090585</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H11">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I11">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J11">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N11">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O11">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P11">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q11">
-        <v>970.7476430687144</v>
+        <v>1153.938801007713</v>
       </c>
       <c r="R11">
-        <v>970.7476430687144</v>
+        <v>10385.44920906942</v>
       </c>
       <c r="S11">
-        <v>0.1720280585498427</v>
+        <v>0.1717954568374052</v>
       </c>
       <c r="T11">
-        <v>0.1720280585498427</v>
+        <v>0.1717954568374052</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H12">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I12">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J12">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N12">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O12">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P12">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q12">
-        <v>52.84800399132084</v>
+        <v>72.68964328199</v>
       </c>
       <c r="R12">
-        <v>52.84800399132084</v>
+        <v>654.20678953791</v>
       </c>
       <c r="S12">
-        <v>0.009365296521474772</v>
+        <v>0.01082184814660203</v>
       </c>
       <c r="T12">
-        <v>0.009365296521474772</v>
+        <v>0.01082184814660203</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H13">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I13">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J13">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.53105123204757</v>
+        <v>9.203668</v>
       </c>
       <c r="N13">
-        <v>8.53105123204757</v>
+        <v>27.611004</v>
       </c>
       <c r="O13">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528278</v>
       </c>
       <c r="P13">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528276</v>
       </c>
       <c r="Q13">
-        <v>629.8876923790026</v>
+        <v>806.9185687097801</v>
       </c>
       <c r="R13">
-        <v>629.8876923790026</v>
+        <v>7262.26711838802</v>
       </c>
       <c r="S13">
-        <v>0.1116236105213291</v>
+        <v>0.1201319723550532</v>
       </c>
       <c r="T13">
-        <v>0.1116236105213291</v>
+        <v>0.1201319723550531</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H14">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I14">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J14">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N14">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O14">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P14">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q14">
-        <v>26.49094888828207</v>
+        <v>62.06815347764822</v>
       </c>
       <c r="R14">
-        <v>26.49094888828207</v>
+        <v>558.6133812988339</v>
       </c>
       <c r="S14">
-        <v>0.004694512048453872</v>
+        <v>0.009240547915049682</v>
       </c>
       <c r="T14">
-        <v>0.004694512048453872</v>
+        <v>0.009240547915049678</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H15">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I15">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J15">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N15">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O15">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P15">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q15">
-        <v>471.1749523630422</v>
+        <v>592.6302797875062</v>
       </c>
       <c r="R15">
-        <v>471.1749523630422</v>
+        <v>5333.672518087556</v>
       </c>
       <c r="S15">
-        <v>0.08349782033577523</v>
+        <v>0.0882292800648215</v>
       </c>
       <c r="T15">
-        <v>0.08349782033577523</v>
+        <v>0.08822928006482149</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H16">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I16">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J16">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N16">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O16">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P16">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q16">
-        <v>25.6510082109258</v>
+        <v>37.33134166061533</v>
       </c>
       <c r="R16">
-        <v>25.6510082109258</v>
+        <v>335.982074945538</v>
       </c>
       <c r="S16">
-        <v>0.00454566454410571</v>
+        <v>0.005557794650234486</v>
       </c>
       <c r="T16">
-        <v>0.00454566454410571</v>
+        <v>0.005557794650234485</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H17">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I17">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J17">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.53105123204757</v>
+        <v>9.203668</v>
       </c>
       <c r="N17">
-        <v>8.53105123204757</v>
+        <v>27.611004</v>
       </c>
       <c r="O17">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528278</v>
       </c>
       <c r="P17">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528276</v>
       </c>
       <c r="Q17">
-        <v>305.7306454152627</v>
+        <v>414.4105187576707</v>
       </c>
       <c r="R17">
-        <v>305.7306454152627</v>
+        <v>3729.694668819036</v>
       </c>
       <c r="S17">
-        <v>0.05417911621574252</v>
+        <v>0.06169637794138463</v>
       </c>
       <c r="T17">
-        <v>0.05417911621574252</v>
+        <v>0.0616963779413846</v>
       </c>
     </row>
   </sheetData>
